--- a/DataRepo/data/tests/infusates/lysine_num_name_conc_only.xlsx
+++ b/DataRepo/data/tests/infusates/lysine_num_name_conc_only.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/infusates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/infusates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB213C68-7E9F-E641-8F48-09863F3B4C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490A75B6-F38C-8D47-A617-348C20E0FA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{9CC8DB23-1FE2-CF4B-8498-9BB7487D86F7}"/>
   </bookViews>
@@ -30,13 +30,13 @@
     <t>Infusate Name</t>
   </si>
   <si>
-    <t>Infusate Number</t>
-  </si>
-  <si>
     <t>Tracer Concentration</t>
   </si>
   <si>
     <t>duderino{lysine-[13C6]}</t>
+  </si>
+  <si>
+    <t>Infusate Row Group</t>
   </si>
 </sst>
 </file>
@@ -101,9 +101,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -141,7 +141,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -247,7 +247,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -389,7 +389,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -399,23 +399,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF67C38-B70B-D44E-A1F1-4694116D9AF2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -429,7 +427,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
